--- a/Data/Resultatskjema_ITT.xlsx
+++ b/Data/Resultatskjema_ITT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldene_analyser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DFEA58-2A45-3F48-BB3D-A767EE25FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2825BA-4217-B545-BABB-9F7DB9DB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32960" yWindow="1960" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>pwv</t>
+  </si>
+  <si>
+    <t>phys_act</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,6 +291,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC07823-6139-9240-9800-F5AB902CB4C1}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H60" sqref="H59:K60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +620,7 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +657,11 @@
       <c r="L1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,8 +698,11 @@
       <c r="L2" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="2">
+        <v>5428.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -727,8 +739,11 @@
       <c r="L3" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="2">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -765,8 +780,11 @@
       <c r="L4" s="8">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -803,8 +821,11 @@
       <c r="L5" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -841,8 +862,11 @@
       <c r="L6" s="6">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -879,8 +903,11 @@
       <c r="L7" s="8">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -917,8 +944,11 @@
       <c r="L8" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -955,8 +985,11 @@
       <c r="L9" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -993,8 +1026,11 @@
       <c r="L10" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="2">
+        <v>3442.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1067,11 @@
       <c r="L11" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1069,8 +1108,11 @@
       <c r="L12" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="2">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1107,8 +1149,11 @@
       <c r="L13" s="6">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="13">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1145,8 +1190,11 @@
       <c r="L14" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="2">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1183,8 +1231,11 @@
       <c r="L15" s="6">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="2">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +1272,11 @@
       <c r="L16" s="6">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="2">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1259,8 +1313,11 @@
       <c r="L17" s="6">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="2">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1297,8 +1354,11 @@
       <c r="L18" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1335,8 +1395,11 @@
       <c r="L19" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1373,8 +1436,11 @@
       <c r="L20" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="2">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1411,8 +1477,11 @@
       <c r="L21" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="2">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1449,8 +1518,11 @@
       <c r="L22" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="2">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1487,8 +1559,11 @@
       <c r="L23" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1525,8 +1600,11 @@
       <c r="L24" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1563,8 +1641,11 @@
       <c r="L25" s="9">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1601,8 +1682,11 @@
       <c r="L26" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1723,11 @@
       <c r="L27" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="2">
+        <v>3100.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1764,11 @@
       <c r="L28" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1715,8 +1805,11 @@
       <c r="L29" s="5">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="2">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1753,8 +1846,11 @@
       <c r="L30" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1791,8 +1887,11 @@
       <c r="L31" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="2">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1829,8 +1928,11 @@
       <c r="L32" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1867,8 +1969,11 @@
       <c r="L33" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1905,8 +2010,11 @@
       <c r="L34" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="2">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1943,8 +2051,11 @@
       <c r="L35" s="9">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="2">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1981,8 +2092,11 @@
       <c r="L36" s="5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="2">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2019,8 +2133,11 @@
       <c r="L37" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="2">
+        <v>5911.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2057,8 +2174,11 @@
       <c r="L38" s="5">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2">
+        <v>2400.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2095,8 +2215,11 @@
       <c r="L39" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -2133,8 +2256,11 @@
       <c r="L40">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="2">
+        <v>4696.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -2171,8 +2297,11 @@
       <c r="L41">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -2209,8 +2338,11 @@
       <c r="L42">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -2247,8 +2379,11 @@
       <c r="L43" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="2">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2285,8 +2420,11 @@
       <c r="L44">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2323,8 +2461,11 @@
       <c r="L45">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -2361,8 +2502,11 @@
       <c r="L46">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="2">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -2399,8 +2543,11 @@
       <c r="L47" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2437,8 +2584,11 @@
       <c r="L48">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2475,8 +2625,11 @@
       <c r="L49">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="2">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -2513,8 +2666,11 @@
       <c r="L50">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -2551,8 +2707,11 @@
       <c r="L51">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="13">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -2589,8 +2748,11 @@
       <c r="L52" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="2">
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="L53">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -2665,8 +2830,11 @@
       <c r="L54">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="2">
+        <v>2923.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -2703,8 +2871,11 @@
       <c r="L55">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="2">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -2741,8 +2912,11 @@
       <c r="L56">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2779,8 +2953,11 @@
       <c r="L57" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="2">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
@@ -2817,8 +2994,11 @@
       <c r="L58">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
@@ -2855,8 +3035,11 @@
       <c r="L59">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
@@ -2893,8 +3076,11 @@
       <c r="L60">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2931,8 +3117,11 @@
       <c r="L61">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
@@ -2969,8 +3158,11 @@
       <c r="L62">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>32</v>
       </c>
@@ -3007,8 +3199,11 @@
       <c r="L63">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
@@ -3045,8 +3240,11 @@
       <c r="L64" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M64" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
@@ -3083,8 +3281,11 @@
       <c r="L65">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M65" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3322,11 @@
       <c r="L66">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M66" s="2">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>30</v>
       </c>
@@ -3159,8 +3363,11 @@
       <c r="L67">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M67" s="2">
+        <v>5994.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -3197,8 +3404,11 @@
       <c r="L68">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M68" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -3235,8 +3445,11 @@
       <c r="L69">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M69" s="2">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
@@ -3273,8 +3486,11 @@
       <c r="L70">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M70" s="2">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3527,11 @@
       <c r="L71" s="6">
         <v>12.356038</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M71" s="5">
+        <v>454.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -3349,8 +3568,11 @@
       <c r="L72" s="5">
         <v>8.2035990000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M72" s="5">
+        <v>2350.4063999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3387,8 +3609,11 @@
       <c r="L73" s="5">
         <v>6.7856930000000011</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M73" s="5">
+        <v>1841.94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3425,8 +3650,11 @@
       <c r="L74" s="6">
         <v>9.6215050000000009</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M74" s="5">
+        <v>272.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3463,9 +3691,11 @@
       <c r="L75" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M75" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3502,8 +3732,11 @@
       <c r="L76" s="5">
         <v>7.4946460000000013</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M76" s="5">
+        <v>532.11599999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3539,6 +3772,9 @@
       </c>
       <c r="L77" s="5">
         <v>5.4690660000000006</v>
+      </c>
+      <c r="M77" s="5">
+        <v>1819.5032000000001</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">

--- a/Data/Resultatskjema_ITT.xlsx
+++ b/Data/Resultatskjema_ITT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2825BA-4217-B545-BABB-9F7DB9DB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6180CA-40BB-7A4A-889D-CA891BE23D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32960" yWindow="1960" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
+    <workbookView xWindow="-34460" yWindow="8540" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>phys_act</t>
+  </si>
+  <si>
+    <t>phys_act_min</t>
   </si>
 </sst>
 </file>
@@ -608,19 +611,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC07823-6139-9240-9800-F5AB902CB4C1}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71:P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +664,11 @@
       <c r="M1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,8 +708,11 @@
       <c r="M2" s="2">
         <v>5428.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -742,8 +752,11 @@
       <c r="M3" s="2">
         <v>2880</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -783,8 +796,11 @@
       <c r="M4" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -824,8 +840,11 @@
       <c r="M5" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -865,8 +884,11 @@
       <c r="M6" s="2">
         <v>1860</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -906,8 +928,11 @@
       <c r="M7" s="2">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -947,8 +972,11 @@
       <c r="M8" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1016,11 @@
       <c r="M9" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1060,11 @@
       <c r="M10" s="2">
         <v>3442.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1104,11 @@
       <c r="M11" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1148,11 @@
       <c r="M12" s="2">
         <v>1728</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1152,8 +1192,11 @@
       <c r="M13" s="13">
         <v>3060</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="10">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1236,11 @@
       <c r="M14" s="2">
         <v>2880</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1234,8 +1280,11 @@
       <c r="M15" s="2">
         <v>3312</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1275,8 +1324,11 @@
       <c r="M16" s="2">
         <v>1224</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1316,8 +1368,11 @@
       <c r="M17" s="2">
         <v>2448</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M18" s="2">
         <v>2358</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1398,8 +1456,11 @@
       <c r="M19" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1439,8 +1500,11 @@
       <c r="M20" s="2">
         <v>6768</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1480,8 +1544,11 @@
       <c r="M21" s="2">
         <v>2484</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1521,8 +1588,11 @@
       <c r="M22" s="2">
         <v>3240</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1562,8 +1632,11 @@
       <c r="M23" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1603,8 +1676,11 @@
       <c r="M24" s="2">
         <v>702</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1644,8 +1720,11 @@
       <c r="M25" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1685,8 +1764,11 @@
       <c r="M26" s="2">
         <v>1080</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1726,8 +1808,11 @@
       <c r="M27" s="2">
         <v>3100.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1767,8 +1852,11 @@
       <c r="M28" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1808,8 +1896,11 @@
       <c r="M29" s="2">
         <v>2430</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1849,8 +1940,11 @@
       <c r="M30" s="2">
         <v>1260</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1890,8 +1984,11 @@
       <c r="M31" s="2">
         <v>1872</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1931,8 +2028,11 @@
       <c r="M32" s="2">
         <v>540</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1972,8 +2072,11 @@
       <c r="M33" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2013,8 +2116,11 @@
       <c r="M34" s="2">
         <v>13320</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2054,8 +2160,11 @@
       <c r="M35" s="2">
         <v>2160</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2095,8 +2204,11 @@
       <c r="M36" s="2">
         <v>2880</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2136,8 +2248,11 @@
       <c r="M37" s="2">
         <v>5911.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2177,8 +2292,11 @@
       <c r="M38" s="2">
         <v>2400.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2218,8 +2336,11 @@
       <c r="M39" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -2259,8 +2380,11 @@
       <c r="M40" s="2">
         <v>4696.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -2300,8 +2424,11 @@
       <c r="M41" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -2341,8 +2468,11 @@
       <c r="M42" s="2">
         <v>1620</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -2382,8 +2512,11 @@
       <c r="M43" s="2">
         <v>1872</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2423,8 +2556,11 @@
       <c r="M44" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2464,8 +2600,11 @@
       <c r="M45" s="2">
         <v>1368</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -2505,8 +2644,11 @@
       <c r="M46" s="2">
         <v>2160</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -2546,8 +2688,11 @@
       <c r="M47" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2587,8 +2732,11 @@
       <c r="M48" s="2">
         <v>1620</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2628,8 +2776,11 @@
       <c r="M49" s="2">
         <v>1530</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -2669,8 +2820,11 @@
       <c r="M50" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -2710,8 +2864,11 @@
       <c r="M51" s="13">
         <v>4260</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="13">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -2751,8 +2908,11 @@
       <c r="M52" s="2">
         <v>275.39999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2792,8 +2952,11 @@
       <c r="M53" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -2833,8 +2996,11 @@
       <c r="M54" s="2">
         <v>2923.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +3040,11 @@
       <c r="M55" s="2">
         <v>4824</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -2915,8 +3084,11 @@
       <c r="M56" s="2">
         <v>2358</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2956,8 +3128,11 @@
       <c r="M57" s="2">
         <v>6012</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
@@ -2997,8 +3172,11 @@
       <c r="M58" s="2">
         <v>1260</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
@@ -3038,8 +3216,11 @@
       <c r="M59" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
@@ -3079,8 +3260,11 @@
       <c r="M60" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
@@ -3120,8 +3304,11 @@
       <c r="M61" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
@@ -3161,8 +3348,11 @@
       <c r="M62" s="2">
         <v>1080</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>32</v>
       </c>
@@ -3202,8 +3392,11 @@
       <c r="M63" s="2">
         <v>1080</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
@@ -3243,8 +3436,11 @@
       <c r="M64" s="2">
         <v>1620</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
@@ -3284,8 +3480,11 @@
       <c r="M65" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
@@ -3325,8 +3524,11 @@
       <c r="M66" s="2">
         <v>2844</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>30</v>
       </c>
@@ -3366,8 +3568,11 @@
       <c r="M67" s="2">
         <v>5994.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -3407,8 +3612,11 @@
       <c r="M68" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -3448,8 +3656,11 @@
       <c r="M69" s="2">
         <v>2736</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
@@ -3489,8 +3700,11 @@
       <c r="M70" s="2">
         <v>3672</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3530,8 +3744,12 @@
       <c r="M71" s="5">
         <v>454.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="5">
+        <v>496.2</v>
+      </c>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -3571,8 +3789,12 @@
       <c r="M72" s="5">
         <v>2350.4063999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="5">
+        <v>413.5</v>
+      </c>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3612,8 +3834,12 @@
       <c r="M73" s="5">
         <v>1841.94</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="5">
+        <v>285.315</v>
+      </c>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3653,8 +3879,12 @@
       <c r="M74" s="5">
         <v>272.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="5">
+        <v>49.6</v>
+      </c>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3694,8 +3924,12 @@
       <c r="M75" s="12">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3735,8 +3969,12 @@
       <c r="M76" s="5">
         <v>532.11599999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="5">
+        <v>86.834999999999994</v>
+      </c>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3776,6 +4014,10 @@
       <c r="M77" s="5">
         <v>1819.5032000000001</v>
       </c>
+      <c r="N77" s="5">
+        <v>347.34</v>
+      </c>
+      <c r="O77" s="5"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="11"/>

--- a/Data/Resultatskjema_ITT.xlsx
+++ b/Data/Resultatskjema_ITT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6180CA-40BB-7A4A-889D-CA891BE23D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7C72B-72DB-B94B-A692-E01FE5A1868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34460" yWindow="8540" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
+    <workbookView xWindow="-34460" yWindow="5160" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -613,14 +613,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC07823-6139-9240-9800-F5AB902CB4C1}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71:P77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
